--- a/Unity Queries.xlsx
+++ b/Unity Queries.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
     <sheet name="tips" sheetId="2" r:id="rId2"/>
+    <sheet name="Tic tac toe game" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Always have a excel sheet where you can wite all your programs</t>
   </si>
@@ -127,12 +128,113 @@
   <si>
     <t>Only works when the canvas is placed in right conditions, camera to orthographic,canvas rendermode-&gt;screenspace camera</t>
   </si>
+  <si>
+    <t>shift key sets the pivot location and holding the alt sets the position of the UI element, so by holding both keys, we not only change the anchoring, but reset the pivot and position as well, so the Panel is guaranteed to be in the middle and center of the parent Canvas.</t>
+  </si>
+  <si>
+    <t>create two canvas 1 for top text,scores,etc;.,2 for game holder(holds the background</t>
+  </si>
+  <si>
+    <t>create a 3rd canvas on the 2nd and position the canvas(pivot,position and anchor) to the center so then the game doesn’t resize</t>
+  </si>
+  <si>
+    <t>shift(pivot),alt(position),anchors from the menu</t>
+  </si>
+  <si>
+    <t>Load a prefab</t>
+  </si>
+  <si>
+    <t>GameObject ps =Resources.Load("Prefabs/placeHolder") as GameObject;
+  if (ps == null) {
+   Debug.Log (" Resource Not loaded");
+  }</t>
+  </si>
+  <si>
+    <t>Instantiate a prefab and assign the parent to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameObject instance = Instantiate(ps,this.transform.position,Quaternion.identity) as GameObject;
+  if (instance == null) {
+   Debug.Log ("Object not instantiated");
+  }
+  //instance.transform.parent = gameObject.transform;
+  instance.transform.SetParent(gameObject.transform); </t>
+  </si>
+  <si>
+    <t>Rectransform getting component and setting the anchor,pivot,position</t>
+  </si>
+  <si>
+    <t>instance.GetComponent&lt;RectTransform&gt; ().anchoredPosition.Set (0.5f, 0.5f);
+  instance.GetComponent&lt;RectTransform&gt; ().pivot.Set (0.5f, 0.5f);
+  instance.GetComponent&lt;RectTransform&gt; ().localPosition= new Vector2 (-140f, 140f);</t>
+  </si>
+  <si>
+    <t>Pause,wait,waitforseconds</t>
+  </si>
+  <si>
+    <t>StartCoroutine(waitingFor()); 
+IEnumerator waitingFor()
+ {
+  for (float j = 140; j &gt;= -140; j = j - 20) { // vertical
+   for (float i = -140f; i &lt;= 140; i = i + 20) { // horizaontal
+    Debug.Log(i+","+j);
+    instance.GetComponent&lt;RectTransform&gt; ().localPosition= new Vector2 (i,j);
+    yield return new WaitForSeconds(0.1f);
+   }
+   Debug.Log ("===========");
+  }
+ }</t>
+  </si>
+  <si>
+    <t>Change the sprite of a button on click</t>
+  </si>
+  <si>
+    <t>Sprite displaySprite;
+UnityEngine.UI.Image image = GetComponent&lt;UnityEngine.UI.Image&gt;();
+image.sprite = displaySprite;</t>
+  </si>
+  <si>
+    <t>creating a static class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using UnityEngine;
+using System.Collections;
+public static class GlobalVariables : object
+{
+ public static int[,] checkMatrix = new int[15,15];
+ public static int turn=0;
+}
+</t>
+  </si>
+  <si>
+    <t>access a static class</t>
+  </si>
+  <si>
+    <t>GlobalVariables.turn = 1;</t>
+  </si>
+  <si>
+    <t>invoke an script function in another object</t>
+  </si>
+  <si>
+    <t>GameObject toGo = GameObject.Find ("gameBoard");
+  if (toGo == null) {
+   Debug.Log ("Cant find the gameObject");
+  } else {
+   toGo.GetComponent&lt;gameBoardMainScript&gt; ().setMatrixValue(x,y);
+  }</t>
+  </si>
+  <si>
+    <t>Diabling a button</t>
+  </si>
+  <si>
+    <t>button.setInteractable =false;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,30 +253,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,14 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,119 +594,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="186" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -635,13 +821,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -663,6 +852,45 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
